--- a/excel_data/test_excel.xlsx
+++ b/excel_data/test_excel.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_project\ui_1129\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A9E169-8EDA-4B02-8052-05652DCA182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A6CB81-30B7-437D-920F-5F3C8B8251BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="登录-" sheetId="1" r:id="rId1"/>
-    <sheet name="个人信息-" sheetId="2" r:id="rId2"/>
+    <sheet name="个人信息-" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>步骤ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,65 +51,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>访问 首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shop-xo.hctestedu.com/index.php?s=/index/user/logininfo.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入 用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入 密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@name='accounts']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liuge002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liuge666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击 登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>//button[contains(@data-am-loading,'{load') and text()='登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>断言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@name='pwd']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assert_equal_text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,18 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assert_equal_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="prompt-msg"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,23 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D:\1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用fixture启动浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_fixture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,21 +168,6 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,28 +245,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -646,319 +538,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C163C-78ED-454A-BAA0-6B65BD73118C}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="66.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="32.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="104.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="3">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>-1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{0F606426-E8D4-4D67-9E31-610EF9644D33}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C163C-78ED-454A-BAA0-6B65BD73118C}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="16"/>
-    <col min="2" max="2" width="32.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="104.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{5A242317-6AF4-447D-87E0-ABAB9F39BA4C}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{C71621CC-BC7F-4C74-92F2-92EE2019CD5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/excel_data/test_excel.xlsx
+++ b/excel_data/test_excel.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_project\ui_1129\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2089DA90-E029-4FC0-B889-A52DA6FA52C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED652BE3-1E0D-4782-ADED-4BA4ACA04C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="1056" windowWidth="17424" windowHeight="11304" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="百度访问" sheetId="2" r:id="rId1"/>
+    <sheet name="淘宝访问" sheetId="2" r:id="rId1"/>
     <sheet name="鼠标操作" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
   <si>
     <t>步骤ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>action_chains_keyboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,7 +264,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.selenium.dev/selenium/web/mouse_interaction.html</t>
+    <t>//*[@id="click-status"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相等:double-clicked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度页面的键盘操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@onclick="alert('cheese');"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="J_MiniCart"]/div[1]/a/span[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="login-form"]/div[4]/button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="title-content"]/span[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击头条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换窗口回首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_handles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='s-news-item-title c-link c-font-big  title-clamp-2  has-tts']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击推荐第一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://vip.ytesting.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="password"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击密码框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,31 +368,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="click-status"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="clickable"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相等:double-clicked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度页面的键盘操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selenium官网鼠标操作练习</t>
+    <t>滑块操作练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://layuion.com/demo/slider.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="slideTest1"]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="layui-slider-wrap-btn"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -393,12 +481,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -411,6 +519,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -692,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C163C-78ED-454A-BAA0-6B65BD73118C}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -724,9 +836,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>-1</v>
-      </c>
+      <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -734,14 +844,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -754,9 +862,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
@@ -764,309 +870,374 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
+      <c r="D5" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
+      <c r="D8" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1080,17 +1251,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA280ADE-DAF2-478F-B82E-E0E9EF814D17}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -1119,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -1139,63 +1311,210 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>60</v>
+      <c r="D4" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.6</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{5DBE522C-8C9D-45BF-8F17-623A4AF692B9}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{6D6E01CE-A98F-4FEF-A20A-CAFD4D28DC52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/excel_data/test_excel.xlsx
+++ b/excel_data/test_excel.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_project\ui_1129\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED652BE3-1E0D-4782-ADED-4BA4ACA04C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64676C14-4B4C-4924-A35C-18CC810E72FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="淘宝访问" sheetId="2" r:id="rId1"/>
     <sheet name="鼠标操作" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="验证码登录测试" sheetId="5" r:id="rId4"/>
+    <sheet name="京东登录拖动验证" sheetId="6" r:id="rId5"/>
+    <sheet name="B站点选验证码测试" sheetId="7" r:id="rId6"/>
+    <sheet name="图鉴登录" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="159">
   <si>
     <t>步骤ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百度页面的键盘操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,99 +297,373 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="J_MiniCart"]/div[1]/a/span[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="login-form"]/div[4]/button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="title-content"]/span[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击头条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换窗口回首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_handles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='s-news-item-title c-link c-font-big  title-clamp-2  has-tts']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击推荐第一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="password"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击密码框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double_click_ele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑块操作练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="slideTest1"]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="chkd"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="TxtChkCode"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="layui-slider-wrap-btn"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//*[@onclick="alert('cheese');"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休眠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="J_MiniCart"]/div[1]/a/span[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="login-form"]/div[4]/button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="title-content"]/span[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击头条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换窗口回首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_handles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class='s-news-item-title c-link c-font-big  title-clamp-2  has-tts']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击推荐第一条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://vip.ytesting.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="password"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击密码框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double_click_ele</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑块操作练习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://layuion.com/demo/slider.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="slideTest1"]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="layui-slider-wrap-btn"]</t>
+    <t>//*[@id="friendLink"]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击最下方的百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://novel.hctestedu.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问百度首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入关键字并按下回车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六哥是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyboard_down_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://taobao.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标悬停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="J_SiteNavLogin"]/div[1]/div/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理;;LINK_TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问测试页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://novel.hctestedu.com/user/register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="txtUName"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="txtPassword"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="btnRegister"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://poc.10086.cn/station/login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="checkCode"]</t>
+  </si>
+  <si>
+    <t>//*[@id="login_usercode"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问京东登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://passport.jd.com/new/login.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="loginname"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="nloginpwd"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000Sixy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="loginsubmit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='JDJRV-smallimg']/img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='JDJRV-bigimg']/img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="content"]/div[2]/div[1]/div/div[3]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击账号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15809186521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div/div/div/div[2]/button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify_code_gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="i_cecream"]/div[2]/div[1]/div[1]/ul[2]/li[1]/li/div/div/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到登录界面后输入账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/iframe</t>
+  </si>
+  <si>
+    <t>switch_iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换进入iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@placeholder='请输入账号']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@placeholder='请输入密码']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='btn_primary ']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='geetest_holder geetest_silver']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ttshitu.com/login.html?spm=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//img[@id='captchaImg']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@placeholder='请输入验证码']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@class='layui-btn layui-btn-normal full-width']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2066Sixy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -519,10 +794,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -804,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C163C-78ED-454A-BAA0-6B65BD73118C}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
@@ -844,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -870,169 +1147,169 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="5" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
+      <c r="D10" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -1041,10 +1318,10 @@
     <row r="17" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>50</v>
@@ -1054,190 +1331,218 @@
     <row r="18" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
-      <c r="B19" s="4" t="s">
-        <v>56</v>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
-      <c r="B22" s="5" t="s">
-        <v>45</v>
+      <c r="B22" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
+      <c r="D22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,17 +1556,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA280ADE-DAF2-478F-B82E-E0E9EF814D17}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1281,9 +1586,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>-1</v>
-      </c>
+      <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1291,14 +1594,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1327,66 +1628,68 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.6</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="5">
+        <v>86</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.3</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -1396,30 +1699,32 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1429,92 +1734,982 @@
     <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-1</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>79</v>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{5DBE522C-8C9D-45BF-8F17-623A4AF692B9}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{6D6E01CE-A98F-4FEF-A20A-CAFD4D28DC52}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{5DBE522C-8C9D-45BF-8F17-623A4AF692B9}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{1789E6E2-0E8B-4156-A9C7-F718E92C4BD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD2008-0F05-4C0E-900E-26D3E9C86D13}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{039B0474-1A7D-455E-AAB5-CC3C1782E681}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F89F35-FEDE-4229-AB1F-EBFF53199D29}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15809186580</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="5">
+        <v>123456</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15809186581</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="5">
+        <v>123456</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{A6480168-3443-4453-9C64-1CD67BE788FB}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{8BF9AA90-54EA-45AB-8BEB-C75E56FDCA21}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{9A096517-9C5E-428C-8F9A-6E65067F9596}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{D82BA9A1-5D2B-4212-BC98-E5BB4318FE1A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760888A-42C8-4FC1-A7FA-E47109E9FBD7}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{797CB881-43C7-4919-A887-A05B6257DA44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1ED3F0-6FC1-46AA-AC5A-0B821D31AFE5}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="85.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6633</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2222</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{A08E0FC9-9DDB-4990-94A4-1563923F6525}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC7E190-CC8A-407E-8D6B-9CAE372665CB}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="53.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15809186521</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{4A869E90-44E0-4B00-9F1A-74D9A82CD9FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>